--- a/results/2500/v3/resultsSummaryWord2Vec2500.xlsx
+++ b/results/2500/v3/resultsSummaryWord2Vec2500.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programowanie\python\przetwarzanieJezykaNaturalnego\projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programowanie\python\przetwarzanieJezykaNaturalnego\projekt\results\2500\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7F89D1-50BC-48DF-8723-4EA854D82056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68558799-8812-4CC7-805C-B4426DFFF3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-21720" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -982,7 +982,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
